--- a/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_141.xlsx
+++ b/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_141.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,268 +488,266 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_15</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>isophonics_261</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.19375</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:min', 'D:min']]</t>
-        </is>
+          <t>schubert-winterreise_127</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_201</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:min', 'C:min']]</t>
+          <t>[['E:(3,b5,b7)/G#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(44.2, 52.32)]</t>
+          <t>[['D:(3,b5,b7)/F#', 'G:maj', 'D:(3,b5,b7)/G#', 'G:maj', 'D:(3,b5,b7)/G#', 'G:maj', 'D:(3,b5,b7)/G#', 'G:maj', 'D:(3,b5,b7)/G#', 'G:maj', 'D:(3,b5,b7)/G#']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(60.854263, 66.566371)]</t>
+          <t>[('0:00:46.060000', '0:00:51.040000')]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>spotify:track:2B4Y9u4ERAFiMo13XPJyGP</t>
-        </is>
-      </c>
+          <t>[('0:00:37.820000', '0:00:42.820000')]</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_186</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_197</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.2202898550724638</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['A#:min', 'F:min', 'C:7', 'F:min']]</t>
-        </is>
+          <t>schubert-winterreise_64</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_129</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.1348837209302326</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['B:min/F#', 'F#:min', 'C#:7', 'F#:min']]</t>
+          <t>[['A:7', 'D:min', 'D:min'], ['D:maj/A', 'A:7', 'D:min'], ['D:min', 'A:7/E', 'D:min']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(6.92, 13.46)]</t>
+          <t>[['C:7', 'F:min/C', 'F:min'], ['F:maj/C', 'C:7', 'F:min/C'], ['F:min', 'C:7', 'F:min']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(1.68, 5.3)]</t>
+          <t>[('0:00:12.420000', '0:00:27.080000'), ('0:00:55.720000', '0:01:04.640000'), ('0:00:00.820000', '0:00:06.760000')]</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
+          <t>[('0:00:32.200000', '0:00:33.700000'), ('0:00:32.060000', '0:00:33.280000'), ('0:00:08.200000', '0:00:12.660000')]</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
           <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>isophonics_121</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_170</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.0882943143812709</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['E', 'E/7', 'C#:min']]</t>
-        </is>
+          <t>schubert-winterreise_114</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_202</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.4017857142857143</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['G:maj', 'G:maj', 'E:min']]</t>
+          <t>[['D:maj', 'A:7', 'D:maj'], ['D:maj/F#', 'G:maj', 'D:maj']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(10.501791, 15.122562)]</t>
+          <t>[['F:maj/C', 'C:7', 'F:maj'], ['F:maj/A', 'A#:maj', 'F:maj/C']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(7.24, 13.86)]</t>
+          <t>[('0:00:01.640000', '0:00:10.360000'), ('0:00:57.480000', '0:01:04.580000')]</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>spotify:track:0suLngfo7rJoetk7Ub6N8l</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>[('0:01:03.100000', '0:01:04.320000'), ('0:01:01.480000', '0:01:03.580000')]</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_79</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_55</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.1641025641025641</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:min', 'E:7', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_130</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_82</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.421195652173913</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['C:min/D#', 'G:min/D', 'D:7', 'G:min']]</t>
+          <t>[['B:7/A', 'E:maj/G#', 'E:maj/B', 'B:7', 'E:maj/G#']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(21.02, 31.86)]</t>
+          <t>[['D:7', 'G:maj', 'G:maj/B', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(41.08, 43.34)]</t>
+          <t>[('0:03:49.340000', '0:04:05.220000')]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>[('0:00:19.360000', '0:00:23.020000')]</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_197</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_45</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.1652173913043478</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['F#:min', 'C#:7', 'F#:min']]</t>
-        </is>
+          <t>schubert-winterreise_56</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_131</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.7142857142857143</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
+          <t>[['A#:maj', 'F:(3,5,b7,b9)', 'A#:maj']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(2.86, 5.3)]</t>
+          <t>[['D#:maj/A#', 'A#:(3,5,b7,b9)', 'D#:maj']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(36.66, 43.94)]</t>
+          <t>[('0:00:21.880000', '0:00:24.860000')]</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
+          <t>[('0:00:57.420000', '0:01:00.320000')]</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_28</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_156</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.2687747035573123</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:maj', 'A:maj', 'E:7/G#']]</t>
-        </is>
+          <t>schubert-winterreise_189</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_157</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.3726708074534161</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['C#:7', 'F#:maj', 'F#:maj/A#', 'C#:7']]</t>
+          <t>[['G:maj/D', 'D:7', 'G:maj', 'G:min']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(5.7, 12.08)]</t>
+          <t>[['F:maj/A', 'C:7', 'F:maj', 'F:min']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(21.44, 24.72)]</t>
+          <t>[('0:00:58.320000', '0:01:01.680000')]</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
+          <t>[('0:00:18.460000', '0:00:21.820000')]</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr">
         <is>
           <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
         </is>
@@ -753,450 +756,418 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_122</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_208</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.09779367918902802</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['D:maj/F#', 'A:7', 'D:maj', 'B:min']]</t>
-        </is>
+          <t>schubert-winterreise_199</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_206</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.7142857142857143</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['F:maj/C', 'C:7', 'F:maj', 'D:min/A']]</t>
+          <t>[['D#:maj/A#', 'A#:(3,5,b7,b9)', 'D#:maj']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(36.4, 44.08)]</t>
+          <t>[['A#:maj', 'F:(3,5,b7,b9)', 'A#:maj']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(111.28, 124.16)]</t>
+          <t>[('0:00:58.680000', '0:01:01.260000')]</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
+          <t>[('0:00:22.600000', '0:00:25.720000')]</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>isophonics_35</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_2</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.1963636363636364</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['G:7', 'C', 'C/7']]</t>
-        </is>
+          <t>isophonics_79</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>isophonics_108</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.9479166666666667</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:maj', 'A:maj']]</t>
+          <t>[['B', 'A', 'E', 'B', 'E', 'A', 'E', 'B', 'A', 'E', 'B', 'E', 'A', 'E', 'B', 'A', 'E', 'B', 'E', 'A', 'E', 'B', 'A', 'E', 'B', 'E', 'A', 'E', 'B', 'A', 'E', 'B', 'E', 'A', 'E', 'B', 'A', 'E', 'B', 'E', 'A', 'E', 'B']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(12.851927, 16.810929)]</t>
+          <t>[['E', 'D', 'A', 'E', 'A', 'D', 'A', 'E', 'D', 'A', 'E', 'A', 'D', 'A', 'E', 'D', 'A', 'E', 'A', 'D', 'A', 'E', 'D', 'A', 'E', 'A', 'D', 'A', 'E', 'D', 'A', 'E', 'A', 'D', 'A', 'E', 'D', 'A', 'E', 'A', 'D', 'A', 'E']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(8.34, 15.04)]</t>
+          <t>[('0:00:01.073119', '0:02:02.908221')]</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>spotify:track:1dxbAIfCASqv6jix2R1Taj</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
+          <t>[('0:00:15.586961', '0:02:23.772721')]</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_58</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_111</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.1230769230769231</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['A:min', 'E:7/G#', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_53</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>isophonics_111</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.7556818181818181</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['G:min/D', 'D:7', 'G:min']]</t>
+          <t>[['E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(37.96, 44.8)]</t>
+          <t>[['C', 'G:7', 'C', 'G:7', 'C', 'G:7', 'C']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(40.38, 42.28)]</t>
+          <t>[('0:00:24.860000', '0:00:52.580000')]</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>[('0:01:10.519024', '0:01:22.732721')]</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_69</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_108</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.2666666666666667</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['G:7', 'C:maj/G', 'G:7', 'C:maj/G']]</t>
-        </is>
+          <t>schubert-winterreise_132</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_9</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.1177257525083612</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['F:7', 'A#:maj/F', 'F:7', 'A#:maj']]</t>
+          <t>[['A#:min/C#', 'F:min/C', 'C:7', 'F:min']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(96.66, 106.3)]</t>
+          <t>[['A#:min/F', 'F:min', 'C:7', 'F:min']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(85.16, 94.9)]</t>
+          <t>[('0:00:43.380000', '0:00:45.800000')]</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+          <t>[('0:00:03.660000', '0:00:07.560000')]</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_156</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_93</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.1001011122345804</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['C#:7', 'F#:min', 'F#:min']]</t>
-        </is>
+          <t>isophonics_269</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_75</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0.4</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['F:7', 'A#:min', 'A#:min']]</t>
+          <t>[['A:min', 'E', 'A:min', 'E', 'A:min', 'E', 'A:min']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(4.26, 8.68)]</t>
+          <t>[['F:min/C', 'C', 'F:min/C', 'C', 'F:min', 'C', 'F:min']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(16.26, 21.14)]</t>
+          <t>[('0:00:38.841000', '0:00:47.891000')]</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
+          <t>[('0:00:45.720000', '0:00:59.980000')]</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_94</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_170</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.06153846153846154</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['A#:min', 'D#:min/A#', 'A#:min'], ['A#:min/F', 'F:7', 'A#:min']]</t>
-        </is>
+          <t>isophonics_277</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>isophonics_162</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0.4083333333333333</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['G:min/A#', 'C:min', 'G:min/A#'], ['G:min/D', 'D:7', 'G:min']]</t>
+          <t>[['A', 'E', 'D', 'A', 'E', 'A', 'E']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(30.24, 38.5), (84.62, 91.74)]</t>
+          <t>[['D', 'A', 'G/2', 'D/5', 'A', 'D', 'A']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(94.8, 106.96), (40.82, 43.62)]</t>
+          <t>[('0:00:27.452358', '0:00:39.410634')]</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>[('0:00:47.804648', '0:00:59.368185')]</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>spotify:track:2RnPATK99oGOZygnD2GTO6</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>spotify:track:4MLBqAEzNN89o2M9h92Z26</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_128</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_142</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.1177257525083612</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['C:min/D#', 'G:min/D', 'D:7', 'G:min']]</t>
-        </is>
+          <t>isophonics_14</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>isophonics_95</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>0.1045673076923077</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['A#:min/F', 'F:min', 'C:7', 'F:min']]</t>
+          <t>[['G', 'A', 'A/7']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(46.22, 48.94)]</t>
+          <t>[['D', 'E', 'E']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(1.92, 5.28)]</t>
+          <t>[('0:01:23.103979', '0:01:26.183398')]</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>[('0:00:05.346961', '0:00:13.218526')]</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>spotify:track:0pNeVovbiZHkulpGeOx1Gj</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>spotify:track:1H7gMYGykdtwZOV6s1N0by</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_0</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_165</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.07334525939177103</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['D:maj/F#', 'A:7', 'D:maj']]</t>
-        </is>
+          <t>schubert-winterreise_170</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_26</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>0.2461538461538462</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['C#:maj/G#', 'G#:7', 'C#:maj']]</t>
+          <t>[['D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(34.86, 39.7)]</t>
+          <t>[['C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(29.5, 31.64)]</t>
+          <t>[('0:01:10.380000', '0:01:30.980000')]</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>[('0:02:00.220000', '0:02:01.920000')]</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_89</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_146</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.1036789297658863</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['G:min', 'D:7', 'G:min'], ['G:min', 'C:min/G', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_115</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_157</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>0.1334681496461072</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['B:min/F#', 'F#:7', 'B:min'], ['B:min', 'E:min/B', 'B:min']]</t>
+          <t>[['D:min', 'A:7', 'D:min', 'D:min']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(4.16, 6.7), (1.64, 5.02)]</t>
+          <t>[['F:min', 'C:7', 'F:min', 'F:min']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(81.1, 87.58), (27.46, 36.02)]</t>
+          <t>[('0:00:09.900000', '0:00:26.980000')]</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
+          <t>[('0:00:02.560000', '0:00:06.820000')]</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
           <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_6</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_69</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.1384615384615385</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['B:min/F#', 'F#:7', 'B:min']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(79.42, 86.02)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(42.36, 50.36)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
         </is>
       </c>
     </row>
